--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>39.98826713231492</v>
+        <v>49.36816293202501</v>
       </c>
       <c r="R2">
-        <v>39.98826713231492</v>
+        <v>197.4726517281</v>
       </c>
       <c r="S2">
-        <v>0.00379016583376292</v>
+        <v>0.004137732930909169</v>
       </c>
       <c r="T2">
-        <v>0.00379016583376292</v>
+        <v>0.002541328595947561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>154.2136095694376</v>
+        <v>191.866505137755</v>
       </c>
       <c r="R3">
-        <v>154.2136095694376</v>
+        <v>1151.19903082653</v>
       </c>
       <c r="S3">
-        <v>0.01461666623755748</v>
+        <v>0.01608105932035697</v>
       </c>
       <c r="T3">
-        <v>0.01461666623755748</v>
+        <v>0.01481508953804297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>221.3273044004769</v>
+        <v>264.072069401595</v>
       </c>
       <c r="R4">
-        <v>221.3273044004769</v>
+        <v>1584.43241640957</v>
       </c>
       <c r="S4">
-        <v>0.02097783293389166</v>
+        <v>0.02213288145238043</v>
       </c>
       <c r="T4">
-        <v>0.02097783293389166</v>
+        <v>0.02039048634294994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>220.5811722778812</v>
+        <v>261.3271297437851</v>
       </c>
       <c r="R5">
-        <v>220.5811722778812</v>
+        <v>1567.96277846271</v>
       </c>
       <c r="S5">
-        <v>0.02090711307826056</v>
+        <v>0.02190281765132068</v>
       </c>
       <c r="T5">
-        <v>0.02090711307826056</v>
+        <v>0.02017853414849171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>30.07375939464871</v>
+        <v>38.62003093242001</v>
       </c>
       <c r="R6">
-        <v>30.07375939464871</v>
+        <v>231.7201855945201</v>
       </c>
       <c r="S6">
-        <v>0.002850449482425613</v>
+        <v>0.003236891232955796</v>
       </c>
       <c r="T6">
-        <v>0.002850449482425613</v>
+        <v>0.002982069308110849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>72.06734954026275</v>
+        <v>84.67203557253001</v>
       </c>
       <c r="R7">
-        <v>72.06734954026275</v>
+        <v>338.68814229012</v>
       </c>
       <c r="S7">
-        <v>0.006830683736645863</v>
+        <v>0.00709668436311813</v>
       </c>
       <c r="T7">
-        <v>0.006830683736645863</v>
+        <v>0.004358668674259564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>55.28900454702666</v>
+        <v>65.08105203994334</v>
       </c>
       <c r="R8">
-        <v>55.28900454702666</v>
+        <v>390.48631223966</v>
       </c>
       <c r="S8">
-        <v>0.005240399523278171</v>
+        <v>0.00545468974761466</v>
       </c>
       <c r="T8">
-        <v>0.005240399523278171</v>
+        <v>0.005025273236251102</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H9">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J9">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>213.2204662053942</v>
+        <v>252.9337383443954</v>
       </c>
       <c r="R9">
-        <v>213.2204662053942</v>
+        <v>2276.403645099558</v>
       </c>
       <c r="S9">
-        <v>0.02020945102213794</v>
+        <v>0.02119933569184238</v>
       </c>
       <c r="T9">
-        <v>0.02020945102213794</v>
+        <v>0.02929564994739756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H10">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J10">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>306.0139190050151</v>
+        <v>348.1208752832113</v>
       </c>
       <c r="R10">
-        <v>306.0139190050151</v>
+        <v>3133.087877548902</v>
       </c>
       <c r="S10">
-        <v>0.02900459518865774</v>
+        <v>0.02917733057192337</v>
       </c>
       <c r="T10">
-        <v>0.02900459518865774</v>
+        <v>0.04032054943889056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H11">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J11">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>304.9822938490067</v>
+        <v>344.5022767754563</v>
       </c>
       <c r="R11">
-        <v>304.9822938490067</v>
+        <v>3100.520490979106</v>
       </c>
       <c r="S11">
-        <v>0.02890681574733773</v>
+        <v>0.02887404210988574</v>
       </c>
       <c r="T11">
-        <v>0.02890681574733773</v>
+        <v>0.03990143099357258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H12">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J12">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>41.58090207848079</v>
+        <v>50.91200671894135</v>
       </c>
       <c r="R12">
-        <v>41.58090207848079</v>
+        <v>458.208060470472</v>
       </c>
       <c r="S12">
-        <v>0.003941118875529932</v>
+        <v>0.004267128332680527</v>
       </c>
       <c r="T12">
-        <v>0.003941118875529932</v>
+        <v>0.005896802604193619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H13">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J13">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>99.64252772543392</v>
+        <v>111.6214342634387</v>
       </c>
       <c r="R13">
-        <v>99.64252772543392</v>
+        <v>669.728605580632</v>
       </c>
       <c r="S13">
-        <v>0.009444312826187009</v>
+        <v>0.009355415654884252</v>
       </c>
       <c r="T13">
-        <v>0.009444312826187009</v>
+        <v>0.008618917313318042</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J14">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>80.74147284253802</v>
+        <v>1.516828868566667</v>
       </c>
       <c r="R14">
-        <v>80.74147284253802</v>
+        <v>9.100973211400001</v>
       </c>
       <c r="S14">
-        <v>0.007652834035616002</v>
+        <v>0.0001271311790285519</v>
       </c>
       <c r="T14">
-        <v>0.007652834035616002</v>
+        <v>0.0001171228687652872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J15">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>311.3771829071928</v>
+        <v>5.895067521646667</v>
       </c>
       <c r="R15">
-        <v>311.3771829071928</v>
+        <v>53.05560769482</v>
       </c>
       <c r="S15">
-        <v>0.02951293578596912</v>
+        <v>0.0004940879620705381</v>
       </c>
       <c r="T15">
-        <v>0.02951293578596912</v>
+        <v>0.0006827868660814422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J16">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>446.8883954994412</v>
+        <v>8.113571874286666</v>
       </c>
       <c r="R16">
-        <v>446.8883954994412</v>
+        <v>73.02214686858001</v>
       </c>
       <c r="S16">
-        <v>0.04235695241613387</v>
+        <v>0.000680029224051933</v>
       </c>
       <c r="T16">
-        <v>0.04235695241613387</v>
+        <v>0.0009397416216910923</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J17">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>445.3818584366029</v>
+        <v>8.02923404463778</v>
       </c>
       <c r="R17">
-        <v>445.3818584366029</v>
+        <v>72.26310640174002</v>
       </c>
       <c r="S17">
-        <v>0.04221415989941957</v>
+        <v>0.0006729605507545267</v>
       </c>
       <c r="T17">
-        <v>0.04221415989941957</v>
+        <v>0.0009299733260461953</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J18">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>60.72280200093489</v>
+        <v>1.186594240986667</v>
       </c>
       <c r="R18">
-        <v>60.72280200093489</v>
+        <v>10.67934816888</v>
       </c>
       <c r="S18">
-        <v>0.005755425427982801</v>
+        <v>9.945296269820729E-05</v>
       </c>
       <c r="T18">
-        <v>0.005755425427982801</v>
+        <v>0.0001374354000422481</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J19">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>145.513280845235</v>
+        <v>2.601534679213334</v>
       </c>
       <c r="R19">
-        <v>145.513280845235</v>
+        <v>15.60920807528</v>
       </c>
       <c r="S19">
-        <v>0.01379203213766344</v>
+        <v>0.0002180444860365739</v>
       </c>
       <c r="T19">
-        <v>0.01379203213766344</v>
+        <v>0.0002008790913307007</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H20">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I20">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J20">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>395.4633674545161</v>
+        <v>122.472469230755</v>
       </c>
       <c r="R20">
-        <v>395.4633674545161</v>
+        <v>734.8348153845301</v>
       </c>
       <c r="S20">
-        <v>0.0374827881106077</v>
+        <v>0.01026488204075186</v>
       </c>
       <c r="T20">
-        <v>0.0374827881106077</v>
+        <v>0.009456786614714897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H21">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I21">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J21">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>1525.093176602357</v>
+        <v>475.9821563393211</v>
       </c>
       <c r="R21">
-        <v>1525.093176602357</v>
+        <v>4283.83940705389</v>
       </c>
       <c r="S21">
-        <v>0.1445513013138809</v>
+        <v>0.03989386936520507</v>
       </c>
       <c r="T21">
-        <v>0.1445513013138809</v>
+        <v>0.05512987996222842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H22">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I22">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J22">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>2188.813054044846</v>
+        <v>655.1096187034491</v>
       </c>
       <c r="R22">
-        <v>2188.813054044846</v>
+        <v>5895.986568331042</v>
       </c>
       <c r="S22">
-        <v>0.2074599638560231</v>
+        <v>0.05490722120644692</v>
       </c>
       <c r="T22">
-        <v>0.2074599638560231</v>
+        <v>0.07587703480101826</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H23">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I23">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J23">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>2181.434191620241</v>
+        <v>648.2999762574805</v>
       </c>
       <c r="R23">
-        <v>2181.434191620241</v>
+        <v>5834.699786317324</v>
       </c>
       <c r="S23">
-        <v>0.2067605809054882</v>
+        <v>0.05433647925205828</v>
       </c>
       <c r="T23">
-        <v>0.2067605809054882</v>
+        <v>0.07508831874174583</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H24">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I24">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J24">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>297.4139920310215</v>
+        <v>95.80851846916403</v>
       </c>
       <c r="R24">
-        <v>297.4139920310215</v>
+        <v>862.2766662224763</v>
       </c>
       <c r="S24">
-        <v>0.02818947736217543</v>
+        <v>0.008030075222311263</v>
       </c>
       <c r="T24">
-        <v>0.02818947736217543</v>
+        <v>0.01109687002383878</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.708558</v>
+      </c>
+      <c r="N25">
+        <v>51.417116</v>
+      </c>
+      <c r="O25">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P25">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q25">
+        <v>210.054266869126</v>
+      </c>
+      <c r="R25">
+        <v>1260.325601214756</v>
+      </c>
+      <c r="S25">
+        <v>0.01760544459592502</v>
+      </c>
+      <c r="T25">
+        <v>0.0162194686836025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.989415</v>
+      </c>
+      <c r="N26">
+        <v>29.97883</v>
+      </c>
+      <c r="O26">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P26">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q26">
+        <v>423.438982218</v>
+      </c>
+      <c r="R26">
+        <v>1693.755928872</v>
+      </c>
+      <c r="S26">
+        <v>0.03549002670742508</v>
+      </c>
+      <c r="T26">
+        <v>0.02179739998896075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>58.255493</v>
+      </c>
+      <c r="N27">
+        <v>174.766479</v>
+      </c>
+      <c r="O27">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P27">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q27">
+        <v>1645.6710728556</v>
+      </c>
+      <c r="R27">
+        <v>9874.026437133602</v>
+      </c>
+      <c r="S27">
+        <v>0.1379299327174686</v>
+      </c>
+      <c r="T27">
+        <v>0.1270714983681921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>80.178917</v>
+      </c>
+      <c r="N28">
+        <v>240.536751</v>
+      </c>
+      <c r="O28">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P28">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q28">
+        <v>2264.9902621164</v>
+      </c>
+      <c r="R28">
+        <v>13589.9415726984</v>
+      </c>
+      <c r="S28">
+        <v>0.1898374223211793</v>
+      </c>
+      <c r="T28">
+        <v>0.1748926083370183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N29">
+        <v>238.036453</v>
+      </c>
+      <c r="O29">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P29">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q29">
+        <v>2241.4464560292</v>
+      </c>
+      <c r="R29">
+        <v>13448.6787361752</v>
+      </c>
+      <c r="S29">
+        <v>0.1878641266589509</v>
+      </c>
+      <c r="T29">
+        <v>0.1730746589508148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q25">
-        <v>712.7089713193111</v>
-      </c>
-      <c r="R25">
-        <v>712.7089713193111</v>
-      </c>
-      <c r="S25">
-        <v>0.06755194426336705</v>
-      </c>
-      <c r="T25">
-        <v>0.06755194426336705</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.726012</v>
+      </c>
+      <c r="N30">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P30">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q30">
+        <v>331.2504581904001</v>
+      </c>
+      <c r="R30">
+        <v>1987.5027491424</v>
+      </c>
+      <c r="S30">
+        <v>0.02776335694565713</v>
+      </c>
+      <c r="T30">
+        <v>0.02557770671897672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>726.2461966536</v>
+      </c>
+      <c r="R31">
+        <v>2904.9847866144</v>
+      </c>
+      <c r="S31">
+        <v>0.060869447542108</v>
+      </c>
+      <c r="T31">
+        <v>0.0373850294935057</v>
       </c>
     </row>
   </sheetData>
